--- a/experiment result cnn/4096_0.4_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/4096_0.4_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0008016976485203919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0291127390091198</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.004629502540894225</v>
+        <v>0.0001601279998358976</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0003000755683845234</v>
+        <v>0.0008435278744822392</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001649160047363337</v>
+        <v>0.0003602159997235171</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.002514516033047418</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002589085948035324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0071805202387251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.002107263121357074</v>
+        <v>0.0003004499979689159</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.009672284354178518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003802036183069334</v>
+        <v>0.0005414579786272588</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.006853347668009028</v>
+        <v>0.0004408839921879786</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.009493735700052706</v>
+        <v>0.001647651559584054</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01786826296336205</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.006023721750137915</v>
+        <v>0.02555674288304601</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.004410881584322407</v>
+        <v>0.002605283787203569</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05661740529727753</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.005786341668727419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.001988449103671693</v>
+        <v>0.002305086939353703</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01830964678174275</v>
+        <v>0.0002602499994124299</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.001907873303662403</v>
+        <v>0.004139148724152306</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.009790736700206009</v>
+        <v>0.0002001999995991992</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01775854449216569</v>
+        <v>0.001104837767126757</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.004822678887295227</v>
+        <v>0.0003802979995723446</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.994587020940258e-05</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.007614297300739347</v>
+        <v>0.06583743268055291</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005905222966930331</v>
+        <v>0.001912047549446651</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06207638503009617</v>
+        <v>0.006258492457406489</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01226359499967298</v>
+        <v>0.0004203899892438511</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01056402515700141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.002134777503823139</v>
+        <v>0.009162037539240206</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.006687850274591812</v>
+        <v>0.0002803919984590513</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.007190465222437712</v>
+        <v>0.000841891971142714</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0156944362067865</v>
+        <v>0.001632184496116986</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0001999878209643658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01103162977851421</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.001915251298947195</v>
+        <v>0.007217435548519072</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.005658064875295288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.000921225072552434</v>
+        <v>0.006348100887194898</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0003801045985441114</v>
+        <v>0.0003805219973694777</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.003097117814295104</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0159723899373897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.002549594447835309</v>
+        <v>6.000599999987997e-05</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01022174759514022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01224702846064537</v>
+        <v>0.002162892643411518</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.004572245322246106</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0008416531540890986</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.007343145675155688</v>
+        <v>0.003086185989251327</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.004775367680161493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.004449036631147723</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.002131419465725197</v>
+        <v>0.0224247920146932</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.04201131650265503</v>
+        <v>0.1329360421007194</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02913901753080123</v>
+        <v>0.01584383498242841</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.007607471111519892</v>
+        <v>0.01877327828416836</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01724315177770806</v>
+        <v>0.09514378452392983</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.008491505523926286</v>
+        <v>0.02488720861418103</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.006082545451616047</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08058691640445342</v>
+        <v>0.0004204019991983585</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01390358150077322</v>
+        <v>0.001122387972037465</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.004397227520176541</v>
+        <v>0.05770520987287074</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0004001702308796196</v>
+        <v>0.001647427588854661</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.009051488416100774</v>
+        <v>0.01068040051324204</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.005474048671115701</v>
+        <v>0.1019696872856001</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02188804039589439</v>
+        <v>0.00314169629767648</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02074159785027576</v>
+        <v>0.04962907333485896</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02225053847123041</v>
+        <v>0.01294639490132053</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.967871355492229e-05</v>
+        <v>0.0001801299998358576</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.006091493762001533</v>
+        <v>0.1209353320678209</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06992157723181898</v>
+        <v>0.0007212999914150954</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01014667063413286</v>
+        <v>0.0002200699967777833</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01738524078618013</v>
+        <v>0.006977717473557699</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.006040638664185016</v>
+        <v>0.0002801719998518832</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0559056818308797</v>
+        <v>0.03458605582432652</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02814714478393792</v>
+        <v>0.03845659435709319</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0002796555893336954</v>
+        <v>0.1922140040613822</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04270521746176874</v>
+        <v>0.02167593859123369</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03642006646705818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03278345928733976</v>
+        <v>0.01517710174409248</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08901285855880153</v>
+        <v>0.0005608479953850155</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01075241735921415</v>
+        <v>0.05048403724607665</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01258509468235432</v>
+        <v>0.002415420682757066</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.006309173398169955</v>
+        <v>0.00235628792702565</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01871792151256584</v>
+        <v>0.009662070964264594</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0005598744260136773</v>
+        <v>0.0259707844070162</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01796033158049254</v>
+        <v>0.0405569247036119</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.02814156315574541</v>
+        <v>0.002187481755338556</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.006539429682176814</v>
+        <v>0.06639271608821574</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07715516622525806</v>
+        <v>0.00158595781836872</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0701926721994052</v>
+        <v>0.0009638918487477433</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.005263080052042713</v>
+        <v>0.01229858125161187</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.001686651541268311</v>
+        <v>0.01419555313183277</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2037898901590433</v>
+        <v>0.002839407852199325</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0007207032825391256</v>
+        <v>0.01207523663865706</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01234729530105049</v>
+        <v>0.01394274840004111</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02815681829842463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.005161208781441468</v>
+        <v>0.04139023935975314</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.00461213552378374</v>
+        <v>0.000100021999996678</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.001884380032956997</v>
+        <v>0.1214425881144305</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.004898006441986513</v>
+        <v>0.001266981509549142</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01937627759843348</v>
+        <v>0.2008540287102404</v>
       </c>
     </row>
   </sheetData>
